--- a/historicocomissoes/202404/xpvp/xpvp.xlsx
+++ b/historicocomissoes/202404/xpvp/xpvp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f97ab02c6af1f0/Miha/Comissões/PJ2/03.2024 - XP P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f97ab02c6af1f0/Miha/Comissões/PJ2/04.2024 - XP P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25E3809-AFF9-4BFA-A58B-4C2AF8290FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23205993-86E1-4BBE-8370-69CEB9A30B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37290" yWindow="6195" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
   <si>
     <t>Classificação</t>
   </si>
@@ -67,22 +67,70 @@
     <t>Previdência - Co-corretagem</t>
   </si>
   <si>
+    <t>AZ Quest Luce Advisory Prev XP Seg FICFIRF CP</t>
+  </si>
+  <si>
+    <t>32847001000162</t>
+  </si>
+  <si>
+    <t>Xps</t>
+  </si>
+  <si>
+    <t>08/03/2022</t>
+  </si>
+  <si>
+    <t>A36624</t>
+  </si>
+  <si>
+    <t>01/04/2024</t>
+  </si>
+  <si>
+    <t>Kinea Apolo Advisory XP Seg Prev FIC FIM</t>
+  </si>
+  <si>
+    <t>35162484000150</t>
+  </si>
+  <si>
+    <t>XP Horizonte CP Prev XP Seg FIC FIRF</t>
+  </si>
+  <si>
+    <t>30910166000106</t>
+  </si>
+  <si>
+    <t>14/03/2022</t>
+  </si>
+  <si>
+    <t>Vinland RF Ativo XP Seg Prev FICFI</t>
+  </si>
+  <si>
+    <t>41866348000143</t>
+  </si>
+  <si>
+    <t>Capitânia Prev Advisory XP Seg FIC FIRF CP</t>
+  </si>
+  <si>
+    <t>32319658000157</t>
+  </si>
+  <si>
     <t>Kinea Prev XP Seg IPCA Dinâmico FICFI RF</t>
   </si>
   <si>
     <t>37053502000190</t>
   </si>
   <si>
-    <t>Xps</t>
-  </si>
-  <si>
     <t>23/02/2024</t>
   </si>
   <si>
-    <t>A36624</t>
-  </si>
-  <si>
-    <t>01/03/2024</t>
+    <t>XP Crédito Estruturado XP Seg Prev FIC FIRF</t>
+  </si>
+  <si>
+    <t>36352610000100</t>
+  </si>
+  <si>
+    <t>17/01/2024</t>
+  </si>
+  <si>
+    <t>A69861</t>
   </si>
   <si>
     <t>XP Horizonte XP Seg FIC FIRF Prev</t>
@@ -91,90 +139,51 @@
     <t>32064950000176</t>
   </si>
   <si>
+    <t>08/04/2024</t>
+  </si>
+  <si>
+    <t>A70995</t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
+  </si>
+  <si>
+    <t>A72389</t>
+  </si>
+  <si>
+    <t>ARX Denali XP Seg Prev FIC FIRF CP</t>
+  </si>
+  <si>
+    <t>32318938000140</t>
+  </si>
+  <si>
+    <t>26/05/2021</t>
+  </si>
+  <si>
+    <t>A72673</t>
+  </si>
+  <si>
+    <t>Kapitalo K10 Global Prev XP Seg Advisory FIC FIM</t>
+  </si>
+  <si>
+    <t>40679129000192</t>
+  </si>
+  <si>
+    <t>02/02/2022</t>
+  </si>
+  <si>
+    <t>A67370</t>
+  </si>
+  <si>
+    <t>22/02/2021</t>
+  </si>
+  <si>
+    <t>19/03/2024</t>
+  </si>
+  <si>
     <t>12/01/2023</t>
   </si>
   <si>
-    <t>A72673</t>
-  </si>
-  <si>
-    <t>08/03/2022</t>
-  </si>
-  <si>
-    <t>ARX Denali XP Seg Prev FIC FIRF CP</t>
-  </si>
-  <si>
-    <t>32318938000140</t>
-  </si>
-  <si>
-    <t>26/05/2021</t>
-  </si>
-  <si>
-    <t>Capitânia Prev Advisory XP Seg FIC FIRF CP</t>
-  </si>
-  <si>
-    <t>32319658000157</t>
-  </si>
-  <si>
-    <t>10/05/2021</t>
-  </si>
-  <si>
-    <t>A72389</t>
-  </si>
-  <si>
-    <t>19/03/2024</t>
-  </si>
-  <si>
-    <t>Kinea Apolo Advisory XP Seg Prev FIC FIM</t>
-  </si>
-  <si>
-    <t>35162484000150</t>
-  </si>
-  <si>
-    <t>XP Horizonte CP Prev XP Seg FIC FIRF</t>
-  </si>
-  <si>
-    <t>30910166000106</t>
-  </si>
-  <si>
-    <t>14/03/2022</t>
-  </si>
-  <si>
-    <t>Vinland RF Ativo XP Seg Prev FICFI</t>
-  </si>
-  <si>
-    <t>41866348000143</t>
-  </si>
-  <si>
-    <t>17/01/2024</t>
-  </si>
-  <si>
-    <t>A69861</t>
-  </si>
-  <si>
-    <t>Kapitalo K10 Global Prev XP Seg Advisory FIC FIM</t>
-  </si>
-  <si>
-    <t>40679129000192</t>
-  </si>
-  <si>
-    <t>02/02/2022</t>
-  </si>
-  <si>
-    <t>A67370</t>
-  </si>
-  <si>
-    <t>XP Crédito Estruturado XP Seg Prev FIC FIRF</t>
-  </si>
-  <si>
-    <t>36352610000100</t>
-  </si>
-  <si>
-    <t>AZ Quest Luce Advisory Prev XP Seg FICFIRF CP</t>
-  </si>
-  <si>
-    <t>32847001000162</t>
-  </si>
-  <si>
     <t>Solis Antares XP Seg Prev FIC FIRF CP</t>
   </si>
   <si>
@@ -182,12 +191,6 @@
   </si>
   <si>
     <t>15/05/2023</t>
-  </si>
-  <si>
-    <t>22/02/2021</t>
-  </si>
-  <si>
-    <t>03/11/2023</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,16 +641,16 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>100.14</v>
+        <v>160.46</v>
       </c>
       <c r="K2" s="1">
-        <v>95.49</v>
+        <v>153</v>
       </c>
       <c r="L2" s="1">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M2" s="1">
-        <v>14.32</v>
+        <v>47.43</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -667,28 +670,28 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>5554975</v>
+        <v>7975145</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1">
-        <v>6.48</v>
+        <v>84.92</v>
       </c>
       <c r="K3" s="1">
-        <v>6.18</v>
+        <v>80.97</v>
       </c>
       <c r="L3" s="1">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="M3" s="1">
-        <v>2.1</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -699,10 +702,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -720,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="J4" s="1">
-        <v>72.22</v>
+        <v>54.39</v>
       </c>
       <c r="K4" s="1">
-        <v>68.87</v>
+        <v>51.86</v>
       </c>
       <c r="L4" s="1">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="M4" s="1">
-        <v>23.41</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -749,28 +752,28 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>5554975</v>
+        <v>7975145</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1">
-        <v>70.87</v>
+        <v>94.27</v>
       </c>
       <c r="K5" s="1">
-        <v>67.58</v>
+        <v>89.89</v>
       </c>
       <c r="L5" s="1">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="M5" s="1">
-        <v>20.95</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -781,37 +784,37 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>5249315</v>
+        <v>7975145</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="1">
-        <v>132.1</v>
+        <v>5.97</v>
       </c>
       <c r="K6" s="1">
-        <v>125.96</v>
+        <v>5.69</v>
       </c>
       <c r="L6" s="1">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="M6" s="1">
-        <v>26.45</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -822,37 +825,37 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>5554975</v>
+        <v>7975145</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="1">
-        <v>2.23</v>
+        <v>195.99</v>
       </c>
       <c r="K7" s="1">
-        <v>2.12</v>
+        <v>186.87</v>
       </c>
       <c r="L7" s="1">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="M7" s="1">
-        <v>0.72</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -863,16 +866,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>7975145</v>
@@ -884,16 +887,16 @@
         <v>20</v>
       </c>
       <c r="J8" s="1">
-        <v>84.34</v>
+        <v>100.13</v>
       </c>
       <c r="K8" s="1">
-        <v>80.42</v>
+        <v>95.48</v>
       </c>
       <c r="L8" s="1">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M8" s="1">
-        <v>12.06</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -904,16 +907,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G9">
         <v>7975145</v>
@@ -925,16 +928,16 @@
         <v>20</v>
       </c>
       <c r="J9" s="1">
-        <v>53.87</v>
+        <v>53.54</v>
       </c>
       <c r="K9" s="1">
-        <v>51.36</v>
+        <v>51.05</v>
       </c>
       <c r="L9" s="1">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="M9" s="1">
-        <v>16.440000000000001</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -945,37 +948,37 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>7975145</v>
+        <v>8835993</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="1">
-        <v>93.69</v>
+        <v>283.27</v>
       </c>
       <c r="K10" s="1">
-        <v>89.34</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="L10" s="1">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="M10" s="1">
-        <v>22.33</v>
+        <v>40.51</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -986,37 +989,37 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>8835993</v>
+        <v>7975145</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="1">
-        <v>283.3</v>
+        <v>72.650000000000006</v>
       </c>
       <c r="K11" s="1">
-        <v>270.13</v>
+        <v>69.27</v>
       </c>
       <c r="L11" s="1">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M11" s="1">
-        <v>40.520000000000003</v>
+        <v>23.55</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -1027,37 +1030,37 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G12">
-        <v>5072740</v>
+        <v>6581905</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="1">
-        <v>338.15</v>
+        <v>65.260000000000005</v>
       </c>
       <c r="K12" s="1">
-        <v>322.43</v>
+        <v>62.22</v>
       </c>
       <c r="L12" s="1">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M12" s="1">
-        <v>48.36</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -1068,37 +1071,37 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G13">
-        <v>7975145</v>
+        <v>5249315</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="1">
-        <v>194.61</v>
+        <v>133.04</v>
       </c>
       <c r="K13" s="1">
-        <v>185.56</v>
+        <v>126.85</v>
       </c>
       <c r="L13" s="1">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="M13" s="1">
-        <v>38.97</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -1109,37 +1112,37 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>7975145</v>
+        <v>5554975</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1">
-        <v>53.1</v>
+        <v>73.91</v>
       </c>
       <c r="K14" s="1">
-        <v>50.63</v>
+        <v>70.48</v>
       </c>
       <c r="L14" s="1">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="M14" s="1">
-        <v>15.19</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -1150,37 +1153,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15">
+        <v>5072740</v>
+      </c>
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>7975145</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="1">
-        <v>158.83000000000001</v>
+        <v>333.8</v>
       </c>
       <c r="K15" s="1">
-        <v>151.44</v>
+        <v>318.27</v>
       </c>
       <c r="L15" s="1">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="M15" s="1">
-        <v>46.95</v>
+        <v>47.74</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -1191,37 +1194,37 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G16">
-        <v>7975145</v>
+        <v>4795185</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="1">
-        <v>5.91</v>
+        <v>241.6</v>
       </c>
       <c r="K16" s="1">
-        <v>5.64</v>
+        <v>230.36</v>
       </c>
       <c r="L16" s="1">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="M16" s="1">
-        <v>1.8</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -1232,37 +1235,37 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
       <c r="G17">
-        <v>4333272</v>
+        <v>5554975</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="1">
-        <v>25.15</v>
+        <v>5.86</v>
       </c>
       <c r="K17" s="1">
-        <v>23.98</v>
+        <v>5.59</v>
       </c>
       <c r="L17" s="1">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="M17" s="1">
-        <v>6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -1273,37 +1276,37 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18">
-        <v>4795185</v>
+        <v>5554975</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="1">
-        <v>239.07</v>
+        <v>6.52</v>
       </c>
       <c r="K18" s="1">
-        <v>227.95</v>
+        <v>6.22</v>
       </c>
       <c r="L18" s="1">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="M18" s="1">
-        <v>70.66</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -1314,201 +1317,37 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19">
-        <v>13651830</v>
+        <v>4333272</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="1">
-        <v>17.36</v>
+        <v>25.8</v>
       </c>
       <c r="K19" s="1">
-        <v>16.55</v>
+        <v>24.6</v>
       </c>
       <c r="L19" s="1">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M19" s="1">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20">
-        <v>13651830</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2.77</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2.64</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21">
-        <v>13651830</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1">
-        <v>17.82</v>
-      </c>
-      <c r="K21" s="1">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22">
-        <v>13651830</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="K22" s="1">
-        <v>7.15</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23">
-        <v>13651830</v>
-      </c>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1">
-        <v>28.49</v>
-      </c>
-      <c r="K23" s="1">
-        <v>27.16</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M23" s="1">
-        <v>4.07</v>
+        <v>6.15</v>
       </c>
     </row>
   </sheetData>
